--- a/Spells.xlsx
+++ b/Spells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmw65\Documents\myCode\CharacterCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0771840B-F356-4B29-8655-974D2177F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824E4BEF-F5A0-4B55-90D8-002953811B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{44117BD1-2BE6-48AD-B27A-135B1C8AB793}"/>
   </bookViews>
